--- a/biology/Médecine/Entérotype/Entérotype.xlsx
+++ b/biology/Médecine/Entérotype/Entérotype.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ent%C3%A9rotype</t>
+          <t>Entérotype</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Un entérotype est un groupe de composition bactérienne intestinale spécifique chez l'humain[1]. 
-Ce serait un type particulier, au même titre que les groupes sanguins par exemple[2]. L'appartenance à un type donné ne serait pas liée à l'origine ethnique, l'âge ou l'état de santé[1].
-Il en existe trois types bien distincts, liés au régime alimentaire, d'après l'étude du Perelman School of Medicine de Philadelphie (Pennsylvanie)[3]: 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Un entérotype est un groupe de composition bactérienne intestinale spécifique chez l'humain. 
+Ce serait un type particulier, au même titre que les groupes sanguins par exemple. L'appartenance à un type donné ne serait pas liée à l'origine ethnique, l'âge ou l'état de santé.
+Il en existe trois types bien distincts, liés au régime alimentaire, d'après l'étude du Perelman School of Medicine de Philadelphie (Pennsylvanie): 
 le type 1 est caractérisé par de hauts niveaux de Bacteroides, c'est celui du régime occidental riche en viandes,
 le type 2 a beaucoup de Prevotella, il est lié aux régimes riches en glucides,
-le type 3 a un haut niveau de Ruminococcus[4],[5],[6].</t>
+le type 3 a un haut niveau de Ruminococcus.</t>
         </is>
       </c>
     </row>
